--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daram/Documents/GitHub/Comedunion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F612F4-2701-F54A-9B23-1BC5C6104623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A5F4D-06CD-834D-AB6B-7D3132689CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="13480" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -262,6 +262,21 @@
   </si>
   <si>
     <t>Babble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8JKoq7iJMco</t>
+  </si>
+  <si>
+    <t>크리스마스와 재즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EDDD3-CA1E-4C3A-932E-9F52FDB48B51}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -968,6 +983,29 @@
         <v>72</v>
       </c>
     </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daram/Documents/GitHub/Comedunion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A5F4D-06CD-834D-AB6B-7D3132689CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4043CA9C-49BB-CF4E-ACF0-37B40052A8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="13480" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -221,25 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>final</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finaltest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ludia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P0LiiXaY3AA</t>
-  </si>
-  <si>
-    <t>This is final test.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vdnuit.github.io/the-cookie-i-buy/</t>
   </si>
   <si>
@@ -250,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=_FU4873Ri1U</t>
   </si>
   <si>
@@ -265,18 +242,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ho</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hobby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=8JKoq7iJMco</t>
   </si>
   <si>
     <t>크리스마스와 재즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>christmas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jazz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EDDD3-CA1E-4C3A-932E-9F52FDB48B51}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -726,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -905,7 +890,7 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -942,13 +927,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>65</v>
@@ -965,45 +950,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daram/Documents/GitHub/Comedunion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4043CA9C-49BB-CF4E-ACF0-37B40052A8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077AC0D8-CFA1-EB45-B6B9-DBA80C7C5E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="13480" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -262,6 +262,25 @@
   </si>
   <si>
     <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheer up!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VMH5TA_tRmo</t>
+  </si>
+  <si>
+    <t>This is Final check.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EDDD3-CA1E-4C3A-932E-9F52FDB48B51}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -968,6 +987,29 @@
         <v>69</v>
       </c>
     </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daram/Documents/GitHub/Comedunion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077AC0D8-CFA1-EB45-B6B9-DBA80C7C5E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988F2BF-71CF-334E-B4F1-0CBB3B6C556F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="13480" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -262,25 +262,6 @@
   </si>
   <si>
     <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cheer up!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VMH5TA_tRmo</t>
-  </si>
-  <si>
-    <t>This is Final check.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EDDD3-CA1E-4C3A-932E-9F52FDB48B51}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -987,29 +968,6 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daram/Documents/GitHub/Comedunion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988F2BF-71CF-334E-B4F1-0CBB3B6C556F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661219AB-5935-DF49-B343-0A728A6CF53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="13480" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -262,6 +262,25 @@
   </si>
   <si>
     <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VMH5TA_tRmo</t>
+  </si>
+  <si>
+    <t>Cheer up!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is Final data check.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EDDD3-CA1E-4C3A-932E-9F52FDB48B51}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -968,6 +987,29 @@
         <v>69</v>
       </c>
     </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daram/Documents/GitHub/Comedunion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661219AB-5935-DF49-B343-0A728A6CF53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51B2FED-FB70-1242-9C68-DF6DF24DAB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="13480" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EDDD3-CA1E-4C3A-932E-9F52FDB48B51}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -1010,6 +1010,11 @@
         <v>78</v>
       </c>
     </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
